--- a/translation/xlsx/tsum_badend1.xlsx
+++ b/translation/xlsx/tsum_badend1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="1827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="1830">
   <si>
     <t>actor</t>
   </si>
@@ -4023,12 +4023,18 @@
     <t xml:space="preserve">레나의 말이 맞고, ...레나가 하고자 하는 게 진심이라고 케이이치 군 쪽에서도 말해주면 안될까나. ...까나?\" </t>
   </si>
   <si>
+    <t xml:space="preserve">\"....... </t>
+  </si>
+  <si>
     <t>やろうとしてることって、なんだよ…？」</t>
   </si>
   <si>
     <t xml:space="preserve"> What do you mean by... 'what I'm about to do'...?\"</t>
   </si>
   <si>
+    <t xml:space="preserve">하고자 하는 게, 뭔데...?\" </t>
+  </si>
+  <si>
     <t xml:space="preserve">\"하고자 하는 게, 뭔데...?\" </t>
   </si>
   <si>
@@ -4156,6 +4162,9 @@
   </si>
   <si>
     <t>\"Watch your mouth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\"말을 삼가게. </t>
   </si>
   <si>
     <t xml:space="preserve">\"말을 삼가하게. </t>
@@ -5503,7 +5512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -5532,6 +5541,7 @@
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -5573,7 +5583,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5611,6 +5621,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12953,8 +12966,8 @@
       <c r="C376" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D376" s="3" t="s">
-        <v>731</v>
+      <c r="D376" s="14" t="s">
+        <v>1335</v>
       </c>
       <c r="G376" s="2"/>
       <c r="H376" s="3" t="s">
@@ -12966,20 +12979,20 @@
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="B377" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D377" s="3" t="s">
         <v>1337</v>
+      </c>
+      <c r="D377" s="14" t="s">
+        <v>1338</v>
       </c>
       <c r="G377" s="2"/>
       <c r="H377" s="3" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
@@ -12987,56 +13000,56 @@
         <v>777</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="G378" s="2"/>
       <c r="H378" s="3" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="B379" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G379" s="2"/>
       <c r="H379" s="3" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="B380" s="1" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G380" s="2"/>
       <c r="H380" s="3" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
@@ -13044,20 +13057,20 @@
         <v>7</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G381" s="2"/>
       <c r="H381" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
@@ -13065,95 +13078,95 @@
         <v>869</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G382" s="2"/>
       <c r="H382" s="3" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="J382" s="3" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G383" s="2"/>
       <c r="H383" s="3" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="B384" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="G384" s="2"/>
       <c r="H384" s="3" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="B385" s="1" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G385" s="2"/>
       <c r="H385" s="3" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="B386" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G386" s="2"/>
       <c r="H386" s="3" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
@@ -13161,77 +13174,77 @@
         <v>858</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G387" s="2"/>
       <c r="H387" s="3" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="B388" s="1" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G388" s="2"/>
       <c r="H388" s="3" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
+      </c>
+      <c r="D389" s="14" t="s">
+        <v>1382</v>
       </c>
       <c r="G389" s="2"/>
       <c r="H389" s="3" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="B390" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="G390" s="2"/>
       <c r="H390" s="3" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
@@ -13239,95 +13252,95 @@
         <v>858</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G391" s="2"/>
       <c r="H391" s="3" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="B392" s="1" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="G392" s="2"/>
       <c r="H392" s="3" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="B393" s="1" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="G393" s="2"/>
       <c r="H393" s="3" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="B394" s="1" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G394" s="2"/>
       <c r="H394" s="3" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="G395" s="2"/>
       <c r="H395" s="3" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
@@ -13335,77 +13348,77 @@
         <v>858</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="G396" s="2"/>
       <c r="H396" s="3" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="J396" s="3" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="G397" s="2"/>
       <c r="H397" s="3" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="B398" s="1" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="G398" s="2"/>
       <c r="H398" s="3" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="J398" s="6" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="B399" s="1" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="G399" s="2"/>
       <c r="H399" s="3" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="J399" s="7" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
@@ -13413,131 +13426,131 @@
         <v>858</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G400" s="2"/>
       <c r="H400" s="3" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="J400" s="3" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="G401" s="2"/>
       <c r="H401" s="3" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="J401" s="3" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="B402" s="1" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="3" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="J402" s="3" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="B403" s="1" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G403" s="2"/>
       <c r="H403" s="3" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="B404" s="1" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G404" s="2"/>
       <c r="H404" s="3" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="B405" s="1" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G405" s="2"/>
       <c r="H405" s="3" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="J405" s="3" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="B406" s="1" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G406" s="2"/>
       <c r="H406" s="3" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
@@ -13545,20 +13558,20 @@
         <v>869</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G407" s="2"/>
       <c r="H407" s="3" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="J407" s="3" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
@@ -13566,38 +13579,38 @@
         <v>858</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G408" s="2"/>
       <c r="H408" s="3" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="J408" s="3" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="B409" s="1" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="D409" s="7" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="G409" s="2"/>
       <c r="H409" s="3" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="J409" s="7" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
@@ -13605,59 +13618,59 @@
         <v>858</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="D410" s="7" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="G410" s="2"/>
       <c r="H410" s="3" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="J410" s="7" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="B411" s="1" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G411" s="2"/>
       <c r="H411" s="3" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="J411" s="6" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="G412" s="2"/>
       <c r="H412" s="3" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
@@ -13665,59 +13678,59 @@
         <v>858</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="G413" s="2"/>
       <c r="H413" s="3" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="J413" s="3" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="G414" s="2"/>
       <c r="H414" s="3" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="B415" s="1" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="G415" s="2"/>
       <c r="H415" s="3" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
@@ -13725,77 +13738,77 @@
         <v>858</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="G416" s="2"/>
       <c r="H416" s="3" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="G417" s="2"/>
       <c r="H417" s="3" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="J417" s="4" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="B418" s="1" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="G418" s="2"/>
       <c r="H418" s="3" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="B419" s="1" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="G419" s="2"/>
       <c r="H419" s="3" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="J419" s="7" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
@@ -13803,38 +13816,38 @@
         <v>869</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="G420" s="2"/>
       <c r="H420" s="3" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="J420" s="4" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="B421" s="1" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="G421" s="2"/>
       <c r="H421" s="3" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="J421" s="5" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
@@ -13842,56 +13855,56 @@
         <v>858</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="G422" s="2"/>
       <c r="H422" s="3" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="J422" s="4" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="B423" s="1" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="G423" s="2"/>
       <c r="H423" s="3" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="J423" s="6" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="B424" s="1" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="G424" s="2"/>
       <c r="H424" s="3" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="J424" s="7" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1">
@@ -13899,20 +13912,20 @@
         <v>858</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="G425" s="2"/>
       <c r="H425" s="3" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
@@ -13920,77 +13933,77 @@
         <v>869</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="G426" s="2"/>
       <c r="H426" s="3" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="B427" s="1" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="D427" s="7" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="G427" s="2"/>
       <c r="H427" s="3" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="J427" s="7" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="G428" s="2"/>
       <c r="H428" s="3" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="B429" s="1" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="G429" s="2"/>
       <c r="H429" s="3" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="J429" s="3" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
@@ -13998,20 +14011,20 @@
         <v>858</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="G430" s="2"/>
       <c r="H430" s="3" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="J430" s="4" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1">
@@ -14019,56 +14032,56 @@
         <v>858</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="G431" s="2"/>
       <c r="H431" s="3" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="J431" s="6" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="B432" s="1" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="G432" s="2"/>
       <c r="H432" s="3" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="B433" s="1" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G433" s="2"/>
       <c r="H433" s="3" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
@@ -14076,131 +14089,131 @@
         <v>858</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="G434" s="2"/>
       <c r="H434" s="3" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="B435" s="1" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="G435" s="2"/>
       <c r="H435" s="3" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="G436" s="2"/>
       <c r="H436" s="3" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="J436" s="5" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="B437" s="1" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="G437" s="2"/>
       <c r="H437" s="3" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="J437" s="5" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="B438" s="1" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="G438" s="2"/>
       <c r="H438" s="3" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="J438" s="4" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="B439" s="1" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="G439" s="2"/>
       <c r="H439" s="3" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="J439" s="3" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="B440" s="1" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="G440" s="2"/>
       <c r="H440" s="3" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="J440" s="3" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1">
@@ -14208,131 +14221,131 @@
         <v>858</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="G441" s="2"/>
       <c r="H441" s="3" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="J441" s="3" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="B442" s="1" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="G442" s="2"/>
       <c r="H442" s="3" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="G443" s="2"/>
       <c r="H443" s="3" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="B444" s="1" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="G444" s="2"/>
       <c r="H444" s="3" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="B445" s="1" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="G445" s="2"/>
       <c r="H445" s="3" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="B446" s="1" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="G446" s="2"/>
       <c r="H446" s="3" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="J446" s="3" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="B447" s="1" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="G447" s="2"/>
       <c r="H447" s="3" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="J447" s="3" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
@@ -14340,38 +14353,38 @@
         <v>7</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="G448" s="2"/>
       <c r="H448" s="3" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="J448" s="3" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="B449" s="1" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="G449" s="2"/>
       <c r="H449" s="3" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="J449" s="3" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1">
@@ -14379,20 +14392,20 @@
         <v>858</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="G450" s="2"/>
       <c r="H450" s="3" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="J450" s="3" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1">
@@ -14400,20 +14413,20 @@
         <v>7</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="G451" s="2"/>
       <c r="H451" s="3" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1">
@@ -14421,59 +14434,59 @@
         <v>858</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="G452" s="2"/>
       <c r="H452" s="3" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="B453" s="1" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="G453" s="2"/>
       <c r="H453" s="3" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="J453" s="3" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="G454" s="2"/>
       <c r="H454" s="3" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1">
@@ -14481,80 +14494,80 @@
         <v>858</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="G455" s="2"/>
       <c r="H455" s="3" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="B456" s="1" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="G456" s="2"/>
       <c r="H456" s="3" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="J456" s="3" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="G457" s="2"/>
       <c r="H457" s="3" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="J457" s="3" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="1" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="G458" s="2"/>
       <c r="H458" s="3" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1">
@@ -14562,17 +14575,17 @@
         <v>614</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="G459" s="2"/>
       <c r="H459" s="3" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J459" s="3" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1">
@@ -14595,20 +14608,20 @@
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="B461" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="G461" s="2"/>
       <c r="H461" s="3" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1">
@@ -14634,56 +14647,56 @@
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="B463" s="1" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="G463" s="2"/>
       <c r="H463" s="3" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="J463" s="3" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="B464" s="1" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="G464" s="2"/>
       <c r="H464" s="3" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="J464" s="3" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="B465" s="1" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="G465" s="2"/>
       <c r="H465" s="3" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="J465" s="3" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="466" ht="15.75" customHeight="1">
@@ -14691,38 +14704,38 @@
         <v>7</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="G466" s="2"/>
       <c r="H466" s="3" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="J466" s="3" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="B467" s="1" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="G467" s="2"/>
       <c r="H467" s="3" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="J467" s="3" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1">
@@ -14730,20 +14743,20 @@
         <v>7</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="G468" s="2"/>
       <c r="H468" s="3" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="J468" s="3" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="469" ht="15.75" customHeight="1">
@@ -14766,56 +14779,56 @@
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="B470" s="1" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="G470" s="2"/>
       <c r="H470" s="3" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="J470" s="3" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="B471" s="1" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="G471" s="2"/>
       <c r="H471" s="3" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="J471" s="3" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="B472" s="1" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="G472" s="2"/>
       <c r="H472" s="3" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="J472" s="3" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="473" ht="15.75" customHeight="1">
@@ -14823,128 +14836,128 @@
         <v>7</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="G473" s="2"/>
       <c r="H473" s="3" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="J473" s="3" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="B474" s="1" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="G474" s="2"/>
       <c r="H474" s="3" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="J474" s="3" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="B475" s="1" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="G475" s="2"/>
       <c r="H475" s="3" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="J475" s="3" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="B476" s="1" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="G476" s="2"/>
       <c r="H476" s="3" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="J476" s="3" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="B477" s="1" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="G477" s="2"/>
       <c r="H477" s="3" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="J477" s="3" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="B478" s="1" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="G478" s="2"/>
       <c r="H478" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="J478" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="B479" s="1" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="G479" s="2"/>
       <c r="H479" s="3" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="J479" s="3" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="480" ht="15.75" customHeight="1">
@@ -14952,74 +14965,74 @@
         <v>7</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="G480" s="2"/>
       <c r="H480" s="1" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="J480" s="3" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="B481" s="1" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="G481" s="2"/>
       <c r="H481" s="3" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="J481" s="3" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="B482" s="1" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="G482" s="2"/>
       <c r="H482" s="3" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="J482" s="3" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="B483" s="1" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="G483" s="2"/>
       <c r="H483" s="3" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="J483" s="3" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="484" ht="15.75" customHeight="1">
@@ -15027,110 +15040,110 @@
         <v>7</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="G484" s="2"/>
       <c r="H484" s="3" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="J484" s="3" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="B485" s="1" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="G485" s="2"/>
       <c r="H485" s="3" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="J485" s="3" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="B486" s="1" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="G486" s="2"/>
       <c r="H486" s="3" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="J486" s="3" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="B487" s="1" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="G487" s="2"/>
       <c r="H487" s="3" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="J487" s="3" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="B488" s="1" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="G488" s="2"/>
       <c r="H488" s="3" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="J488" s="3" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="B489" s="1" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="G489" s="2"/>
       <c r="H489" s="3" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="J489" s="3" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
@@ -15138,74 +15151,74 @@
         <v>7</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="G490" s="2"/>
       <c r="H490" s="3" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="J490" s="3" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="B491" s="1" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="G491" s="2"/>
       <c r="H491" s="3" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="J491" s="3" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="B492" s="1" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="G492" s="2"/>
       <c r="H492" s="3" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="J492" s="3" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="B493" s="1" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="G493" s="2"/>
       <c r="H493" s="3" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="J493" s="3" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
@@ -15213,56 +15226,56 @@
         <v>7</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="G494" s="2"/>
       <c r="H494" s="3" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="J494" s="3" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="B495" s="1" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="G495" s="2"/>
       <c r="H495" s="3" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="J495" s="3" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="B496" s="1" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="G496" s="2"/>
       <c r="H496" s="3" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="J496" s="3" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
@@ -15270,56 +15283,56 @@
         <v>7</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G497" s="2"/>
       <c r="H497" s="3" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="J497" s="3" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="B498" s="1" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="G498" s="2"/>
       <c r="H498" s="3" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="J498" s="3" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="B499" s="1" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="G499" s="2"/>
       <c r="H499" s="3" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="J499" s="3" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
@@ -15327,74 +15340,74 @@
         <v>7</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="G500" s="2"/>
       <c r="H500" s="3" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="J500" s="3" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="B501" s="1" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="G501" s="2"/>
       <c r="H501" s="3" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="J501" s="3" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="B502" s="1" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="G502" s="2"/>
       <c r="H502" s="3" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="J502" s="3" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="B503" s="1" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="G503" s="2"/>
       <c r="H503" s="3" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="J503" s="3" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
@@ -15402,380 +15415,380 @@
         <v>7</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="G504" s="2"/>
       <c r="H504" s="3" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="J504" s="3" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="B505" s="1" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="G505" s="2"/>
       <c r="H505" s="3" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="J505" s="3" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="B506" s="1" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="G506" s="2"/>
       <c r="H506" s="3" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="J506" s="3" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="B507" s="1" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="G507" s="2"/>
       <c r="H507" s="3" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="J507" s="3" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="B508" s="1" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="G508" s="2"/>
       <c r="H508" s="3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="J508" s="3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="B509" s="1" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="G509" s="2"/>
       <c r="H509" s="3" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="J509" s="3" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="B510" s="1" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="G510" s="2"/>
       <c r="H510" s="3" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="J510" s="3" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="B511" s="1" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="G511" s="2"/>
       <c r="H511" s="3" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="J511" s="3" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="B512" s="1" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="G512" s="2"/>
       <c r="H512" s="3" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="J512" s="3" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="B513" s="1" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="G513" s="2"/>
       <c r="H513" s="3" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="J513" s="3" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="B514" s="1" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="G514" s="2"/>
       <c r="H514" s="3" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="J514" s="3" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="B515" s="1" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="G515" s="2"/>
       <c r="H515" s="3" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="J515" s="3" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="B516" s="1" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="G516" s="2"/>
       <c r="H516" s="3" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="J516" s="3" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="B517" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="G517" s="2"/>
       <c r="H517" s="3" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="J517" s="3" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="B518" s="1" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="G518" s="2"/>
       <c r="H518" s="3" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="J518" s="3" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="B519" s="1" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="G519" s="2"/>
       <c r="H519" s="3" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="J519" s="3" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="B520" s="1" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="G520" s="2"/>
       <c r="H520" s="3" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="J520" s="3" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="B521" s="1" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="G521" s="2"/>
       <c r="H521" s="3" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="J521" s="3" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="B522" s="1" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="G522" s="2"/>
       <c r="H522" s="3" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="J522" s="3" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="B523" s="1" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="G523" s="2"/>
       <c r="H523" s="3" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="B524" s="1" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="G524" s="2"/>
       <c r="H524" s="3" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="J524" s="3" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="525" ht="15.75" customHeight="1">
@@ -15783,38 +15796,38 @@
         <v>7</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="G525" s="2"/>
       <c r="H525" s="3" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="J525" s="3" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="B526" s="1" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="G526" s="2"/>
       <c r="H526" s="3" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="J526" s="3" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="527" ht="15.75" customHeight="1">
